--- a/data/georgia_census/kakheti/axmeta/education_graduates.xlsx
+++ b/data/georgia_census/kakheti/axmeta/education_graduates.xlsx
@@ -1849,13 +1849,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C3204C3-AAAA-4823-A74E-BF56A6373ECD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66BB190A-6DAB-4504-A759-1AD74B9C1B0E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D57A0A-A3C5-4499-90A4-63B7A6E37A7D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80020E14-7080-4663-9C47-4E0047AB7C38}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36788F4E-5BA0-4D86-824E-96CC1B2C9B4F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9399A215-6A48-4753-A1E2-6D262FE79873}"/>
 </file>